--- a/biology/Mycologie/Pulchroboletus_roseoalbidus/Pulchroboletus_roseoalbidus.xlsx
+++ b/biology/Mycologie/Pulchroboletus_roseoalbidus/Pulchroboletus_roseoalbidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet blanc rosé, Bolet rose pâle
 Pulchroboletus roseoalbidus, le Bolet blanc rosé, anciennement Xerocomus roseoalbidus, est une espèce rare de champignons (Fungi) basidiomycètes du genre Pulchroboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau blanc rosé, sa chair bleuissante rose dans le chapeau à la coupe et son habitat méditerranéen. Il pousse souvent en touffes de plusieurs individus.
@@ -512,18 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pulchroboletus roseoalbidus (Alessio &amp; Littini) Gelardi, Vizzini &amp; Simonini[1]. 
-L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus roseoalbidus Alessio &amp; Littini[1].
-Synonymes
-Pulchroboletus roseoalbidus a pour synonymes[1] :
-Boletus roseoalbidus (Alessio &amp; Littini) G.Moreno &amp; Heykoop
-Xerocomus calaniensis R.Fernandez
-Xerocomus roseoalbidus (Alessio &amp; Littini) Gelardi, Vizzini &amp; Simonini
-Xerocomus roseoalbidus Alessio &amp; Littini
-Étymologie
-L'épithète roseoalbidus (roseo = rose, albidus = blanc) fait référence à la couleur du chapeau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pulchroboletus roseoalbidus (Alessio &amp; Littini) Gelardi, Vizzini &amp; Simonini. 
+L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus roseoalbidus Alessio &amp; Littini.
 </t>
         </is>
       </c>
@@ -549,16 +555,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pulchroboletus roseoalbidus a pour synonymes :
+Boletus roseoalbidus (Alessio &amp; Littini) G.Moreno &amp; Heykoop
+Xerocomus calaniensis R.Fernandez
+Xerocomus roseoalbidus (Alessio &amp; Littini) Gelardi, Vizzini &amp; Simonini
+Xerocomus roseoalbidus Alessio &amp; Littini</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pulchroboletus_roseoalbidus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulchroboletus_roseoalbidus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète roseoalbidus (roseo = rose, albidus = blanc) fait référence à la couleur du chapeau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pulchroboletus_roseoalbidus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulchroboletus_roseoalbidus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Pulchroboletus roseoalbidus est un petit bolet xérocomoïde rare, ses caractéristiques macroscopiques sont les suivantes :
-Son chapeau mesure de 2 à 6 cm, il est sec ou un peu gras par temps humide, de couleur crème-rose, brun-rose, parfois taché de rouge sang[2].
-L'hyménophore présente des tubes d'abord jaunes puis jaune olivâtre, bleuissant au toucher. Les pores sont concolores aux tubes[2].
-Son stipe mesure 2 à 6 cm x 0,5 x 2 cm, toujours en pointe à la base et même radicant, jaune et souvent piqueté de petits points rouges, avec en général une zone annulaire granuleuse en relief[2].
-Sa chair est rose dans le chapeau et jaune dans le pied, bleuissante. Sa saveur est douce et son odeur est très faible[2].
+Son chapeau mesure de 2 à 6 cm, il est sec ou un peu gras par temps humide, de couleur crème-rose, brun-rose, parfois taché de rouge sang.
+L'hyménophore présente des tubes d'abord jaunes puis jaune olivâtre, bleuissant au toucher. Les pores sont concolores aux tubes.
+Son stipe mesure 2 à 6 cm x 0,5 x 2 cm, toujours en pointe à la base et même radicant, jaune et souvent piqueté de petits points rouges, avec en général une zone annulaire granuleuse en relief.
+Sa chair est rose dans le chapeau et jaune dans le pied, bleuissante. Sa saveur est douce et son odeur est très faible.
 </t>
         </is>
       </c>
